--- a/results/mp/deberta/corona/confidence/84/stop-words-desired-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-desired-0.15/avg_0.003_scores.xlsx
@@ -139,16 +139,16 @@
     <t>save</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>help</t>
   </si>
   <si>
     <t>credit</t>
@@ -1330,25 +1330,25 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.7665198237885462</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L25">
         <v>174</v>
       </c>
       <c r="M25">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1486,25 +1486,25 @@
         <v>41</v>
       </c>
       <c r="K31">
-        <v>0.6503067484662577</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="L31">
-        <v>212</v>
+        <v>25</v>
       </c>
       <c r="M31">
-        <v>226</v>
+        <v>26</v>
       </c>
       <c r="N31">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O31">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>114</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1512,25 +1512,25 @@
         <v>42</v>
       </c>
       <c r="K32">
-        <v>0.6410256410256411</v>
+        <v>0.6404199475065617</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>246</v>
       </c>
       <c r="N32">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O32">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1538,25 +1538,25 @@
         <v>43</v>
       </c>
       <c r="K33">
-        <v>0.6404199475065617</v>
+        <v>0.6350877192982456</v>
       </c>
       <c r="L33">
-        <v>244</v>
+        <v>181</v>
       </c>
       <c r="M33">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="N33">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="O33">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1564,25 +1564,25 @@
         <v>44</v>
       </c>
       <c r="K34">
-        <v>0.6350877192982456</v>
+        <v>0.6235294117647059</v>
       </c>
       <c r="L34">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="M34">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="N34">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="10:17">
